--- a/UnitTest/2_anomal_test_config.xlsx
+++ b/UnitTest/2_anomal_test_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KOTb\ExcelBiblT\UnitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF111D35-B357-4689-9CC0-752AEA6ADE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F808E5E0-8C54-4435-8D67-B5665706C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="3" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="772">
   <si>
     <t>Название</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Все, что не выделено Полужирным, это редактируемые пользователем параметры</t>
   </si>
   <si>
-    <t>Вывод столбца (можно менять по необходимости, например, для локализации)</t>
-  </si>
-  <si>
     <t>Игнорируемые предметы</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>Граф неориентированный</t>
   </si>
   <si>
-    <t>ЗЕ у компетенции</t>
-  </si>
-  <si>
     <t>Первая группа - компетенция, Вторая группа - номер компетенции, Третья группа - индикатор</t>
   </si>
   <si>
@@ -2032,9 +2026,6 @@
     <t>Не оставлять пустые ячейки при выводе дерева компетенций</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Формула расчёта весов рёбер графа, где вершины - это дисциплина</t>
   </si>
   <si>
@@ -2063,9 +2054,6 @@
   </si>
   <si>
     <t>Среднее усечённое:</t>
-  </si>
-  <si>
-    <t>Truncated mean:</t>
   </si>
   <si>
     <t>Название файла вывода общей статистике по всей выборке УП</t>
@@ -2231,111 +2219,24 @@
     <t>По выбору часть 3 2</t>
   </si>
   <si>
-    <t>UGSN code</t>
-  </si>
-  <si>
-    <t>Total credit curriculum</t>
-  </si>
-  <si>
     <t>!ЗЕ основных дисциплин</t>
   </si>
   <si>
-    <t>Basic credits curriculum</t>
-  </si>
-  <si>
     <t>!ЗЕ дисциплин по выбору</t>
   </si>
   <si>
-    <t>Optional credits curriculum</t>
-  </si>
-  <si>
     <t>!ЗЕ факультативов</t>
   </si>
   <si>
-    <t>Elective credits curriculum</t>
-  </si>
-  <si>
-    <t>Total amount curriculum</t>
-  </si>
-  <si>
-    <t>Total amount of basic</t>
-  </si>
-  <si>
-    <t>Total amoun of optional</t>
-  </si>
-  <si>
-    <t>Total amount of elective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit on competence </t>
-  </si>
-  <si>
     <t>Суффикс после вывода квартиля</t>
   </si>
   <si>
     <t>_quar</t>
   </si>
   <si>
-    <t>Credits total</t>
-  </si>
-  <si>
-    <t>Credits of elective</t>
-  </si>
-  <si>
-    <t>Credits of basic</t>
-  </si>
-  <si>
-    <t>Credits of optional</t>
-  </si>
-  <si>
-    <t>Vertices total</t>
-  </si>
-  <si>
-    <t>Course basic total</t>
-  </si>
-  <si>
-    <t>Course optional total</t>
-  </si>
-  <si>
-    <t>Course elective total</t>
-  </si>
-  <si>
-    <t>Course credits max</t>
-  </si>
-  <si>
-    <t>Course credits min</t>
-  </si>
-  <si>
-    <t>Edge weight max</t>
-  </si>
-  <si>
-    <t>Edge weight min</t>
-  </si>
-  <si>
-    <t>Graph diameter weighted</t>
-  </si>
-  <si>
-    <t>Graph diameter</t>
-  </si>
-  <si>
-    <t>Connected components num</t>
-  </si>
-  <si>
-    <t>Spanning tree max</t>
-  </si>
-  <si>
-    <t>Spanning tree min</t>
-  </si>
-  <si>
-    <t>Graph density</t>
-  </si>
-  <si>
     <t>Коэффициент кластеризации (Глобальный)</t>
   </si>
   <si>
-    <t>Global clustering coefficient</t>
-  </si>
-  <si>
     <t>Количество рёбер указанного квартиля для всей выборки</t>
   </si>
   <si>
@@ -2348,16 +2249,127 @@
     <t>Local_rib_on</t>
   </si>
   <si>
-    <t>Max value:</t>
-  </si>
-  <si>
-    <t>Min value:</t>
-  </si>
-  <si>
     <t>Обратного графа</t>
   </si>
   <si>
     <t>output\2_anomal_test</t>
+  </si>
+  <si>
+    <t>Вывод_столбца_(можно_менять_по_необходимости,_например,_для_локализации)</t>
+  </si>
+  <si>
+    <t>UGSN_code</t>
+  </si>
+  <si>
+    <t>Total_credit_curriculum</t>
+  </si>
+  <si>
+    <t>Basic_credits_curriculum</t>
+  </si>
+  <si>
+    <t>Optional_credits_curriculum</t>
+  </si>
+  <si>
+    <t>Elective_credits_curriculum</t>
+  </si>
+  <si>
+    <t>Total_amount_curriculum</t>
+  </si>
+  <si>
+    <t>Total_amount_of_basic</t>
+  </si>
+  <si>
+    <t>Total_amoun_of_optional</t>
+  </si>
+  <si>
+    <t>Total_amount_of_elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕ у компетенции за курс </t>
+  </si>
+  <si>
+    <t>Credit_on_cource_competence_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕ у компетенции </t>
+  </si>
+  <si>
+    <t>Credit_on_competence_</t>
+  </si>
+  <si>
+    <t>Credits_total</t>
+  </si>
+  <si>
+    <t>Credits_of_elective</t>
+  </si>
+  <si>
+    <t>Credits_of_basic</t>
+  </si>
+  <si>
+    <t>Credits_of_optional</t>
+  </si>
+  <si>
+    <t>Vertices_total</t>
+  </si>
+  <si>
+    <t>Course_basic_total</t>
+  </si>
+  <si>
+    <t>Course_optional_total</t>
+  </si>
+  <si>
+    <t>Course_elective_total</t>
+  </si>
+  <si>
+    <t>Course_credits_max</t>
+  </si>
+  <si>
+    <t>Course_credits_min</t>
+  </si>
+  <si>
+    <t>Edge_weight_max</t>
+  </si>
+  <si>
+    <t>Edge_weight_min</t>
+  </si>
+  <si>
+    <t>Graph_diameter_weighted</t>
+  </si>
+  <si>
+    <t>Graph_diameter</t>
+  </si>
+  <si>
+    <t>Connected_components_num</t>
+  </si>
+  <si>
+    <t>Spanning_tree_max</t>
+  </si>
+  <si>
+    <t>Spanning_tree_min</t>
+  </si>
+  <si>
+    <t>Graph_density</t>
+  </si>
+  <si>
+    <t>Global_clustering_coefficient</t>
+  </si>
+  <si>
+    <t>Amount_with_</t>
+  </si>
+  <si>
+    <t>Нет пути между вершинами</t>
+  </si>
+  <si>
+    <t>No_Path</t>
+  </si>
+  <si>
+    <t>Max_value:</t>
+  </si>
+  <si>
+    <t>Min_value:</t>
+  </si>
+  <si>
+    <t>Truncated_mean:</t>
   </si>
 </sst>
 </file>
@@ -2367,12 +2379,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2549,7 +2569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2629,26 +2649,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2659,31 +2664,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2692,7 +2697,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,80 +2708,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3093,37 +3100,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.09765625" customWidth="1"/>
     <col min="2" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -3136,11 +3143,11 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
@@ -3151,34 +3158,34 @@
         <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>74</v>
       </c>
@@ -3186,678 +3193,734 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>136</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
       <c r="B10" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>137</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
       <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>670</v>
+      </c>
+      <c r="B16" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="B15" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="B17" t="s">
         <v>674</v>
       </c>
-      <c r="B16" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>677</v>
-      </c>
-      <c r="B17" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>693</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>130</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>689</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>76</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="B28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>622</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>623</v>
-      </c>
-      <c r="B33" t="s">
-        <v>542</v>
-      </c>
-      <c r="C33" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>165</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>684</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="8" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="B40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="E36" s="8" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="D49" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="43" t="s">
+        <v>692</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B74" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="B75" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B80" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
-        <v>719</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="D42" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="B81" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+    </row>
+    <row r="88" spans="1:5" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="47" t="s">
         <v>696</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B90" t="s">
         <v>697</v>
       </c>
-      <c r="C52" s="17" t="s">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B91" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="C53" s="17"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="B67" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="B68" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="B72" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>680</v>
-      </c>
-      <c r="B73" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-    </row>
-    <row r="81" spans="1:5" ht="128.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
-        <v>700</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-    </row>
-    <row r="82" spans="1:5" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>662</v>
-      </c>
-      <c r="B83" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="B84" t="s">
-        <v>702</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A87:C87"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3872,17 +3935,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3900,22 +3963,22 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="3" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="23.09765625" customWidth="1"/>
+    <col min="2" max="3" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3923,7 +3986,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -3948,45 +4011,45 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="4" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>632</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" t="s">
         <v>635</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>637</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>639</v>
       </c>
-      <c r="D2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" t="s">
         <v>636</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>638</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>640</v>
-      </c>
-      <c r="D3" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -4005,87 +4068,87 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.75" customWidth="1"/>
-    <col min="2" max="4" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="43.69921875" customWidth="1"/>
+    <col min="2" max="4" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4093,23 +4156,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4117,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4125,31 +4188,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>210</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4157,15 +4220,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4173,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4181,55 +4244,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>214</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>215</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>216</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>217</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>219</v>
-      </c>
       <c r="B28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -4237,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -4245,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4253,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4261,23 +4324,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -4285,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4293,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -4301,39 +4364,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>221</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>223</v>
-      </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4341,391 +4404,391 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>224</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>225</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>226</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>227</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>228</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>229</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>230</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>231</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>232</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>233</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>234</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>235</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>236</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>237</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>238</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>239</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>240</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>241</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>253</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>254</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>255</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>256</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>257</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>258</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>259</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>260</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>261</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>262</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>263</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>264</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>265</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>266</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>267</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>268</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>269</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>270</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>271</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>272</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>273</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>274</v>
-      </c>
       <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4733,754 +4796,754 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>275</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>276</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>277</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>278</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>279</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>280</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>281</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>282</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>283</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>284</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>285</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>286</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>287</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>288</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>289</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>291</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>292</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>293</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>294</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>295</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>296</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>297</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>298</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>299</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>300</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>301</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>302</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>303</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>304</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>305</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>306</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>307</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>308</v>
       </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>309</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>310</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>311</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>312</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>313</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>314</v>
       </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>315</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>316</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>317</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>318</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>319</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>320</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>321</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>322</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>323</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>324</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>325</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>326</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>327</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>328</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>329</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>330</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>331</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>332</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>333</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>334</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>335</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>336</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>337</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>338</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>339</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>340</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>341</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>342</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>343</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>344</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>345</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>346</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>347</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>348</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>349</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>350</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>351</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>352</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>353</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>354</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>355</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>185</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>356</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>357</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>358</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>359</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>360</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>361</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>362</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>363</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>364</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>365</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>366</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>367</v>
-      </c>
       <c r="B184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>52</v>
       </c>
@@ -5488,271 +5551,271 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>368</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>369</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>370</v>
       </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>371</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>372</v>
       </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>373</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>374</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>375</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>376</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>377</v>
       </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>378</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>379</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>380</v>
       </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>381</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>382</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>383</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>384</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>385</v>
       </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>386</v>
       </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>387</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>388</v>
       </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>389</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>390</v>
       </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>391</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>392</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>393</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>394</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>395</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>396</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>397</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>398</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>399</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>400</v>
-      </c>
       <c r="B218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -5760,31 +5823,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>399</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>400</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>401</v>
       </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>402</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>403</v>
-      </c>
       <c r="B222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -5792,562 +5855,562 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>402</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>410</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>411</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>413</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>414</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>415</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>416</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>417</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>418</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>419</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>420</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>421</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>422</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>423</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>424</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>425</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>426</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>427</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>428</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>429</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>430</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>431</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>432</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>433</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>434</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>435</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>436</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>437</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>438</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>439</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>440</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>441</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>442</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>443</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>444</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>445</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>446</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>447</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>448</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>449</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>450</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>451</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>452</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>453</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>454</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>455</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>456</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>458</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>459</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>403</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>404</v>
       </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>412</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>413</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>414</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>415</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>416</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>417</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>418</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>419</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>420</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>421</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>422</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>423</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>424</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>425</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>426</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>427</v>
-      </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>428</v>
-      </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>429</v>
-      </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>430</v>
-      </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>431</v>
-      </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>432</v>
-      </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>433</v>
-      </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>434</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>435</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>436</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>437</v>
-      </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>438</v>
-      </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>439</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>440</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>441</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>442</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>443</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>444</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>445</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>446</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>447</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>448</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>449</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>450</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>451</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>452</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>453</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>454</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>455</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>456</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>457</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>458</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>459</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>405</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>406</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>407</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>408</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>460</v>
       </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>461</v>
       </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>405</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>406</v>
-      </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>407</v>
-      </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>408</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>409</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>410</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>462</v>
       </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>463</v>
       </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>464</v>
       </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>465</v>
       </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>466</v>
       </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>467</v>
       </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>468</v>
       </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>469</v>
       </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>470</v>
       </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>471</v>
       </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>472</v>
-      </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>473</v>
-      </c>
       <c r="B292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -6355,199 +6418,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>472</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>473</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>474</v>
       </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>475</v>
       </c>
-      <c r="B295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>476</v>
       </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>477</v>
       </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>478</v>
       </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>479</v>
       </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>480</v>
       </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>481</v>
       </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>482</v>
       </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>483</v>
       </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>484</v>
       </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>485</v>
       </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>486</v>
       </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>487</v>
       </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>488</v>
       </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>489</v>
       </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>490</v>
       </c>
-      <c r="B310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>491</v>
       </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>492</v>
       </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>493</v>
       </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>494</v>
       </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>495</v>
       </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>496</v>
-      </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>497</v>
-      </c>
       <c r="B317">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>34</v>
       </c>
@@ -6555,181 +6618,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>496</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>497</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>498</v>
       </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>499</v>
       </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>500</v>
       </c>
-      <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>501</v>
       </c>
-      <c r="B322">
-        <v>1</v>
-      </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>502</v>
       </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>503</v>
       </c>
-      <c r="B324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>504</v>
       </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>505</v>
       </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>506</v>
       </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>507</v>
       </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>508</v>
       </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>509</v>
       </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>510</v>
       </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>511</v>
       </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>512</v>
       </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>513</v>
       </c>
-      <c r="B334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>514</v>
       </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>515</v>
       </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>516</v>
       </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>517</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>518</v>
-      </c>
       <c r="B339">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -6737,39 +6800,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>517</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>518</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>519</v>
       </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>520</v>
       </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>521</v>
-      </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>522</v>
-      </c>
       <c r="B344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -6777,15 +6840,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B346">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>21</v>
       </c>
@@ -6793,39 +6856,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>522</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>523</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>524</v>
       </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>525</v>
       </c>
-      <c r="B349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>526</v>
-      </c>
-      <c r="B350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>527</v>
-      </c>
       <c r="B351">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>28</v>
       </c>
@@ -6833,103 +6896,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>526</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>527</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>528</v>
       </c>
-      <c r="B353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>529</v>
       </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>530</v>
       </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>531</v>
       </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>532</v>
       </c>
-      <c r="B357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>533</v>
       </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>534</v>
       </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>535</v>
       </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>536</v>
       </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>537</v>
       </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>538</v>
-      </c>
-      <c r="B363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>539</v>
-      </c>
       <c r="B364">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>50</v>
       </c>
@@ -6937,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>19</v>
       </c>
@@ -6945,178 +7008,178 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B367">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
+        <v>539</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>541</v>
       </c>
-      <c r="B368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>542</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>543</v>
       </c>
-      <c r="B369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>544</v>
       </c>
-      <c r="B370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>545</v>
       </c>
-      <c r="B371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>546</v>
       </c>
-      <c r="B372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>547</v>
       </c>
-      <c r="B373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>548</v>
       </c>
-      <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>549</v>
       </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>550</v>
       </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>551</v>
       </c>
-      <c r="B377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>552</v>
       </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>553</v>
       </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>554</v>
       </c>
-      <c r="B380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>555</v>
-      </c>
-      <c r="B381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>556</v>
-      </c>
       <c r="B382">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>561</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>562</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>563</v>
       </c>
-      <c r="B383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>564</v>
       </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>565</v>
       </c>
-      <c r="B385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>566</v>
-      </c>
-      <c r="B386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>567</v>
-      </c>
       <c r="B387">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>15</v>
       </c>
@@ -7124,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>23</v>
       </c>
@@ -7132,401 +7195,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
+        <v>569</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>570</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>571</v>
       </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>572</v>
       </c>
-      <c r="B391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>573</v>
       </c>
-      <c r="B392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>574</v>
       </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>575</v>
       </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>576</v>
       </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>577</v>
       </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>578</v>
       </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>579</v>
       </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>580</v>
       </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>581</v>
       </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>582</v>
       </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>583</v>
       </c>
-      <c r="B402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>584</v>
       </c>
-      <c r="B403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>585</v>
       </c>
-      <c r="B404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>586</v>
       </c>
-      <c r="B405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>587</v>
       </c>
-      <c r="B406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>588</v>
       </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>589</v>
       </c>
-      <c r="B408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>590</v>
       </c>
-      <c r="B409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>591</v>
       </c>
-      <c r="B410">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>592</v>
       </c>
-      <c r="B411">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>593</v>
       </c>
-      <c r="B412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>594</v>
       </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>595</v>
       </c>
-      <c r="B414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>596</v>
       </c>
-      <c r="B415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>597</v>
       </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>598</v>
       </c>
-      <c r="B417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>599</v>
       </c>
-      <c r="B418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>600</v>
       </c>
-      <c r="B419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>601</v>
       </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>602</v>
       </c>
-      <c r="B421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>603</v>
       </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>604</v>
       </c>
-      <c r="B423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>605</v>
       </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>606</v>
       </c>
-      <c r="B425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>607</v>
       </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>608</v>
       </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>609</v>
       </c>
-      <c r="B428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>610</v>
       </c>
-      <c r="B429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>611</v>
       </c>
-      <c r="B430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>612</v>
       </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>613</v>
       </c>
-      <c r="B432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>614</v>
       </c>
-      <c r="B433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>615</v>
       </c>
-      <c r="B434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>616</v>
       </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>617</v>
       </c>
-      <c r="B436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>618</v>
-      </c>
-      <c r="B437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>619</v>
-      </c>
-      <c r="B438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>620</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7548,32 +7611,32 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="11"/>
+    <col min="1" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>94</v>
       </c>
@@ -7586,530 +7649,492 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="72.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.69921875" customWidth="1"/>
+    <col min="2" max="2" width="72.09765625" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>116</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>726</v>
+        <v>170</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>735</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>728</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>721</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>736</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>729</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>730</v>
-      </c>
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>722</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>732</v>
-      </c>
-      <c r="C9" s="23" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>738</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>131</v>
+        <v>743</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>664</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>738</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>716</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>748</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>717</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>752</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>740</v>
+        <v>173</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>753</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
-        <v>720</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>741</v>
-      </c>
-      <c r="C23" s="43" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>754</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>721</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>742</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>755</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>722</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>743</v>
-      </c>
-      <c r="C25" s="43" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>756</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>744</v>
+        <v>166</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>757</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="C27" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>758</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>746</v>
-      </c>
-      <c r="C28" s="43" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>759</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>747</v>
-      </c>
-      <c r="C29" s="43" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>761</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>762</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>763</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>764</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>766</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>729</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>768</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>748</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="B39" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C31" s="16" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>750</v>
-      </c>
-      <c r="C32" s="43" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>751</v>
-      </c>
-      <c r="C33" s="16" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>752</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>754</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>756</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>759</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
-        <v>760</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>761</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>763</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>765</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="C48" s="31" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8127,197 +8152,197 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="1" max="2" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" t="s">
         <v>559</v>
-      </c>
-      <c r="B5" t="s">
-        <v>561</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
         <v>199</v>
       </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
       <c r="C13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" t="s">
         <v>558</v>
       </c>
-      <c r="B15" t="s">
-        <v>560</v>
-      </c>
       <c r="C15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -8334,12 +8359,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.125" customWidth="1"/>
+    <col min="1" max="2" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8355,15 +8380,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -8371,7 +8396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8379,7 +8404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -8387,7 +8412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -8395,15 +8420,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -8411,7 +8436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8419,7 +8444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -8427,7 +8452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -8435,7 +8460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -8443,7 +8468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -8451,15 +8476,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -8467,7 +8492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -8475,7 +8500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -8483,7 +8508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -8491,7 +8516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -8499,7 +8524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -8507,7 +8532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -8515,7 +8540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -8523,7 +8548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -8531,7 +8556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -8539,7 +8564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -8547,7 +8572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -8555,7 +8580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -8563,7 +8588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -8571,44 +8596,44 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="14" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="B31" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
       <c r="B32" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8624,54 +8649,54 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -8688,12 +8713,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8711,21 +8736,21 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -8736,7 +8761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>56</v>
       </c>

--- a/UnitTest/2_anomal_test_config.xlsx
+++ b/UnitTest/2_anomal_test_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F808E5E0-8C54-4435-8D67-B5665706C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37150FA6-E1C7-4756-B98C-DBBF8066D6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="3" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="779">
   <si>
     <t>Название</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Регулярное выражение разбивки компетенции</t>
   </si>
   <si>
-    <t>(\w{1,})\W{0,}-(.{1,})</t>
-  </si>
-  <si>
     <t>Каталоги данных УП</t>
   </si>
   <si>
@@ -484,9 +481,6 @@
     <t>За какой курс</t>
   </si>
   <si>
-    <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
-  </si>
-  <si>
     <t>Процент распределения Заголовка компетенции</t>
   </si>
   <si>
@@ -2080,9 +2074,6 @@
     <t>Усечение среднего для мер центральной тенденции (процент)</t>
   </si>
   <si>
-    <t>(\w{1,})()</t>
-  </si>
-  <si>
     <t>Регулярное выражение разбивки кода направления подготовки</t>
   </si>
   <si>
@@ -2117,9 +2108,6 @@
   </si>
   <si>
     <t>Делить ЗЕ у компетенции на кол-во дисциплин в компетенции</t>
-  </si>
-  <si>
-    <t>\w{1,}.{0,}-(\d{1,})(\w{1,}).{0,}-(.{1,})</t>
   </si>
   <si>
     <t>С++ не поддерживает наименованные группы. Иначе было бы: названия групп: N - название компетенции, C - номер компетенции , I - номер индикатора ((?&lt;N&gt;\w{1,}).{0,}-(?&lt;C&gt;.{1,})\.(?&lt;I&gt;.{0,}))</t>
@@ -2370,6 +2358,39 @@
   </si>
   <si>
     <t>Truncated_mean:</t>
+  </si>
+  <si>
+    <t>([0-9]{1,})()</t>
+  </si>
+  <si>
+    <t>Сколько вершин в одной строке</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по X</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по Y</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по Z</t>
+  </si>
+  <si>
+    <t>Разброс координат</t>
+  </si>
+  <si>
+    <t>Компетенции на латинице</t>
+  </si>
+  <si>
+    <t>Выводить .xlsx файлы</t>
+  </si>
+  <si>
+    <t>([а-яА-Яa-zA-Z]{1,}).{0,}-(.{1,})\.(.{0,})</t>
+  </si>
+  <si>
+    <t>[а-яА-Яa-zA-Z]{1,}.{0,}-(\d{1,})([а-яА-Яa-zA-Z]{1,}).{0,}-(.{1,})</t>
+  </si>
+  <si>
+    <t>([а-яА-Яa-zA-Z]{1,})[^а-яА-Яa-zA-Z]{0,}-(.{1,})</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2676,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2730,6 +2751,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2769,21 +2806,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3100,16 +3122,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.09765625" customWidth="1"/>
-    <col min="2" max="4" width="29" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="38.796875" customWidth="1"/>
+    <col min="3" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3117,20 +3140,20 @@
       <c r="A1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -3143,11 +3166,11 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
@@ -3158,7 +3181,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3166,7 +3189,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3174,12 +3197,12 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -3195,214 +3218,214 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>134</v>
+      <c r="A9" s="34" t="s">
+        <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>688</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="8" t="s">
-        <v>72</v>
+      <c r="A10" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>135</v>
+      <c r="A11" s="54" t="s">
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>68</v>
+      <c r="A13" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>710</v>
+      <c r="A14" s="54"/>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>669</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>670</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B17" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>685</v>
+      <c r="A18" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>654</v>
+      <c r="A19" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="B19" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>655</v>
+        <v>183</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>182</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>137</v>
+        <v>663</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>138</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>661</v>
+        <v>179</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>662</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>724</v>
+      <c r="A24" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>725</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
+      <c r="A25" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>689</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
+      <c r="A26" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>105</v>
+      <c r="A27" s="13" t="s">
+        <v>709</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="17" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
         <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>540</v>
+      <c r="A34" s="51"/>
+      <c r="B34" s="8" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>684</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
@@ -3410,15 +3433,15 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -3426,7 +3449,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>620</v>
+        <v>407</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
@@ -3434,493 +3457,549 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>658</v>
+        <v>565</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="B42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="51"/>
+      <c r="B45" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B40" t="s">
-        <v>540</v>
-      </c>
-      <c r="C40" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="D45" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="48"/>
+      <c r="B47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="8" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="17" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
+      <c r="B48" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="D49" t="s">
-        <v>716</v>
-      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="48" t="s">
+        <v>711</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D51" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="48"/>
+      <c r="B52" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53" s="5">
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B56" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>776</v>
+      </c>
+      <c r="C58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="51"/>
+      <c r="B59" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="51"/>
+      <c r="B60" s="8" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="43"/>
-      <c r="B57" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="43"/>
-      <c r="B58" s="8" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="51"/>
+      <c r="B62" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="43" t="s">
-        <v>692</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="43"/>
-      <c r="B60" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
+      <c r="C62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2</v>
+      <c r="B63" s="47" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>106</v>
+      <c r="A64" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>136</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>647</v>
+        <v>243</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>648</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>672</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>89</v>
+        <v>645</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>142</v>
+        <v>669</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="B74" s="32">
-        <v>4</v>
+        <v>176</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="B75" s="18">
-        <v>0.05</v>
+        <v>244</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" s="5">
-        <v>6</v>
+        <v>651</v>
+      </c>
+      <c r="B76" s="32">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="5">
-        <v>5</v>
+        <v>673</v>
+      </c>
+      <c r="B77" s="18">
+        <v>0.05</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78" s="18">
-        <v>1E-3</v>
+        <v>178</v>
+      </c>
+      <c r="B78" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="B79" s="18">
-        <v>1E-3</v>
+        <v>91</v>
+      </c>
+      <c r="B79" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>676</v>
+        <v>96</v>
       </c>
       <c r="B80" s="18">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="12">
-        <v>40</v>
+        <v>715</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
+      <c r="A82" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="B82" s="18">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B85" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B84" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="B86" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+    <row r="88" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="41" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-    </row>
-    <row r="88" spans="1:5" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="47" t="s">
-        <v>696</v>
-      </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-    </row>
-    <row r="89" spans="1:5" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="48" t="s">
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+    </row>
+    <row r="90" spans="1:5" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="B90" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="B91" t="s">
-        <v>698</v>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B92" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="B96">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B97">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A87:C87"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3970,13 +4049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3986,7 +4065,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -4017,39 +4096,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="A1" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" t="s">
         <v>633</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>635</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>637</v>
-      </c>
-      <c r="D2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" t="s">
         <v>634</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>636</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>638</v>
-      </c>
-      <c r="D3" t="s">
-        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -4078,18 +4157,18 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4097,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4105,12 +4184,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4118,7 +4197,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4126,7 +4205,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4134,7 +4213,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4142,7 +4221,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4158,7 +4237,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4166,7 +4245,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4190,7 +4269,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4198,7 +4277,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4206,7 +4285,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4222,7 +4301,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4246,7 +4325,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4254,7 +4333,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4262,7 +4341,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4270,7 +4349,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4278,7 +4357,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4286,7 +4365,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4326,7 +4405,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4334,7 +4413,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4366,7 +4445,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4374,7 +4453,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4382,7 +4461,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4390,7 +4469,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4406,7 +4485,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4414,7 +4493,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4422,7 +4501,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4430,7 +4509,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4438,7 +4517,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4446,7 +4525,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4454,7 +4533,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4462,7 +4541,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4470,7 +4549,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4478,7 +4557,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4486,7 +4565,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4494,7 +4573,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4502,7 +4581,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4510,7 +4589,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4518,7 +4597,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4526,7 +4605,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4534,7 +4613,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4542,7 +4621,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4550,7 +4629,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4558,7 +4637,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4566,7 +4645,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4574,7 +4653,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4614,7 +4693,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4622,7 +4701,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4630,7 +4709,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4638,7 +4717,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4646,7 +4725,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4654,7 +4733,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4662,7 +4741,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4670,7 +4749,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4678,7 +4757,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4686,7 +4765,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4694,7 +4773,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4702,7 +4781,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4710,7 +4789,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4718,7 +4797,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4726,7 +4805,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4734,7 +4813,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4742,7 +4821,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4750,7 +4829,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4758,7 +4837,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4766,7 +4845,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4774,7 +4853,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4782,7 +4861,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4798,7 +4877,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4806,7 +4885,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4814,7 +4893,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4822,7 +4901,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4830,7 +4909,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4838,7 +4917,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4846,7 +4925,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4854,7 +4933,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4862,7 +4941,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4870,7 +4949,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4878,7 +4957,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4886,7 +4965,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4894,7 +4973,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4902,7 +4981,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4910,7 +4989,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4918,7 +4997,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4926,7 +5005,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4934,7 +5013,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4942,7 +5021,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4950,7 +5029,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4958,7 +5037,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4966,7 +5045,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4974,7 +5053,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4982,7 +5061,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4990,7 +5069,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4998,7 +5077,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5006,7 +5085,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -5014,7 +5093,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5022,7 +5101,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5030,7 +5109,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5038,7 +5117,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5046,7 +5125,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5054,7 +5133,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5062,7 +5141,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5070,7 +5149,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5078,7 +5157,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5086,7 +5165,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5094,7 +5173,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5102,7 +5181,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5110,7 +5189,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5118,7 +5197,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5126,7 +5205,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -5134,7 +5213,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5142,7 +5221,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -5150,7 +5229,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -5158,7 +5237,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5166,7 +5245,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5174,7 +5253,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5182,7 +5261,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5190,7 +5269,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5198,7 +5277,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5206,7 +5285,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5214,7 +5293,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5222,7 +5301,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5230,7 +5309,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5238,7 +5317,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5246,7 +5325,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5254,7 +5333,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5262,7 +5341,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5270,7 +5349,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -5278,7 +5357,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5289,7 +5368,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -5297,7 +5376,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5305,7 +5384,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5313,7 +5392,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -5321,7 +5400,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5329,7 +5408,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5337,7 +5416,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5345,7 +5424,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5353,7 +5432,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5361,7 +5440,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5369,7 +5448,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5377,7 +5456,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5385,7 +5464,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5393,7 +5472,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5401,7 +5480,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5409,7 +5488,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5417,7 +5496,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5425,7 +5504,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5433,7 +5512,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5441,7 +5520,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5449,7 +5528,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5457,7 +5536,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5465,7 +5544,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5473,7 +5552,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5481,7 +5560,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5489,7 +5568,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5497,7 +5576,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -5505,7 +5584,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5513,7 +5592,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5521,7 +5600,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5529,7 +5608,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -5537,7 +5616,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5553,7 +5632,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5561,7 +5640,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5569,7 +5648,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5577,7 +5656,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5585,7 +5664,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -5593,7 +5672,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5601,7 +5680,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5609,7 +5688,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5617,7 +5696,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5625,7 +5704,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -5633,7 +5712,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5641,7 +5720,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5649,7 +5728,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5657,7 +5736,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -5665,7 +5744,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5673,7 +5752,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5681,7 +5760,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5689,7 +5768,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5697,7 +5776,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5705,7 +5784,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5713,7 +5792,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5721,7 +5800,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5729,7 +5808,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5737,7 +5816,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5745,7 +5824,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5753,7 +5832,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5761,7 +5840,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5769,7 +5848,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5777,7 +5856,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5785,7 +5864,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5793,7 +5872,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -5801,7 +5880,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -5809,7 +5888,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -5825,7 +5904,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5833,7 +5912,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5841,7 +5920,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5857,7 +5936,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5865,7 +5944,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5873,7 +5952,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5881,7 +5960,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5889,7 +5968,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5897,7 +5976,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5905,7 +5984,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5913,7 +5992,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5921,7 +6000,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5929,7 +6008,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5937,7 +6016,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5945,7 +6024,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5953,7 +6032,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5961,7 +6040,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5969,7 +6048,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5977,7 +6056,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -5988,7 +6067,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5996,7 +6075,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -6004,7 +6083,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -6012,7 +6091,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -6020,7 +6099,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -6028,7 +6107,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -6036,7 +6115,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -6044,7 +6123,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -6052,7 +6131,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -6060,7 +6139,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -6068,7 +6147,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -6076,7 +6155,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -6084,7 +6163,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -6092,7 +6171,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -6100,7 +6179,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -6108,7 +6187,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -6116,7 +6195,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -6124,7 +6203,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -6132,7 +6211,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -6140,7 +6219,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -6148,7 +6227,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -6156,7 +6235,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -6164,7 +6243,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -6172,7 +6251,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6180,7 +6259,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6188,7 +6267,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6196,7 +6275,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6204,7 +6283,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6212,7 +6291,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6220,7 +6299,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6228,7 +6307,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6236,7 +6315,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6244,7 +6323,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6252,7 +6331,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6260,7 +6339,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6268,7 +6347,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6276,7 +6355,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6284,7 +6363,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6292,7 +6371,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6300,7 +6379,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -6308,7 +6387,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6316,7 +6395,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -6324,7 +6403,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -6332,7 +6411,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -6340,7 +6419,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -6348,7 +6427,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6356,7 +6435,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -6364,7 +6443,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -6372,7 +6451,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -6380,7 +6459,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -6388,7 +6467,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -6396,7 +6475,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -6404,7 +6483,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6420,7 +6499,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -6428,7 +6507,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -6436,7 +6515,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -6444,7 +6523,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6452,7 +6531,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -6460,7 +6539,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6468,7 +6547,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -6476,7 +6555,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -6484,7 +6563,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6492,7 +6571,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6500,7 +6579,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -6508,7 +6587,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -6516,7 +6595,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -6524,7 +6603,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6532,7 +6611,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6540,7 +6619,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -6548,7 +6627,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6556,7 +6635,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6564,7 +6643,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6572,7 +6651,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6580,7 +6659,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6588,7 +6667,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6596,7 +6675,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6604,7 +6683,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6620,7 +6699,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6628,7 +6707,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6636,7 +6715,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -6644,7 +6723,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6655,7 +6734,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -6663,7 +6742,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6671,7 +6750,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6682,7 +6761,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -6690,7 +6769,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6698,7 +6777,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6706,7 +6785,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6714,7 +6793,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6722,7 +6801,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6730,7 +6809,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6738,7 +6817,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -6746,7 +6825,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -6754,7 +6833,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6762,7 +6841,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6770,7 +6849,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6778,7 +6857,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -6786,7 +6865,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -6802,7 +6881,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6810,7 +6889,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6818,7 +6897,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6826,7 +6905,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6842,7 +6921,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -6858,7 +6937,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6866,7 +6945,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6874,7 +6953,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6882,7 +6961,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -6898,7 +6977,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6906,7 +6985,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6914,7 +6993,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6922,7 +7001,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6930,7 +7009,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -6938,7 +7017,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6946,7 +7025,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -6954,7 +7033,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -6962,7 +7041,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6970,7 +7049,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -6978,7 +7057,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -6986,7 +7065,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -7010,7 +7089,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -7018,7 +7097,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -7026,7 +7105,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -7034,7 +7113,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -7042,7 +7121,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -7050,7 +7129,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -7058,7 +7137,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -7066,7 +7145,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -7074,7 +7153,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -7082,7 +7161,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -7093,7 +7172,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -7101,7 +7180,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -7109,7 +7188,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -7117,7 +7196,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -7125,7 +7204,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -7133,7 +7212,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -7141,7 +7220,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -7149,7 +7228,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -7157,7 +7236,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -7165,7 +7244,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -7173,7 +7252,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -7197,7 +7276,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7205,7 +7284,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -7213,7 +7292,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -7221,7 +7300,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -7229,7 +7308,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -7237,7 +7316,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7245,7 +7324,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7253,7 +7332,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7261,7 +7340,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7269,7 +7348,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7277,7 +7356,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7285,7 +7364,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7293,7 +7372,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7301,7 +7380,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -7309,7 +7388,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -7317,7 +7396,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -7325,7 +7404,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7333,7 +7412,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7341,7 +7420,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -7349,7 +7428,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7357,7 +7436,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -7365,7 +7444,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7373,7 +7452,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7381,7 +7460,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7389,7 +7468,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -7397,7 +7476,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7405,7 +7484,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7413,7 +7492,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7421,7 +7500,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7429,7 +7508,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7437,7 +7516,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7445,7 +7524,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7453,7 +7532,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7461,7 +7540,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7469,7 +7548,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7477,7 +7556,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7485,7 +7564,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7493,7 +7572,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7501,7 +7580,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -7509,7 +7588,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7517,7 +7596,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -7525,7 +7604,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7533,7 +7612,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7541,7 +7620,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -7549,7 +7628,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7557,7 +7636,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7565,7 +7644,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -7573,7 +7652,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -7581,7 +7660,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -7589,7 +7668,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7651,7 +7730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -7667,13 +7746,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>115</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7681,7 +7760,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>71</v>
@@ -7689,10 +7768,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>71</v>
@@ -7700,10 +7779,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>71</v>
@@ -7711,10 +7790,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>734</v>
+        <v>625</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>71</v>
@@ -7722,32 +7801,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>735</v>
+        <v>168</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>731</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>721</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>736</v>
+      <c r="A7" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>732</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>722</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>737</v>
+      <c r="A8" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>733</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>71</v>
@@ -7755,10 +7834,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>738</v>
+        <v>719</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>734</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>71</v>
@@ -7766,10 +7845,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>71</v>
@@ -7777,10 +7856,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>71</v>
@@ -7788,10 +7867,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>71</v>
@@ -7799,10 +7878,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>71</v>
@@ -7810,10 +7889,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>71</v>
@@ -7821,10 +7900,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>71</v>
@@ -7832,10 +7911,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>747</v>
+        <v>166</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>743</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>71</v>
@@ -7843,32 +7922,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>748</v>
+        <v>712</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>744</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>717</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>749</v>
+      <c r="A18" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>745</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
-        <v>718</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>750</v>
+      <c r="A19" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>746</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>71</v>
@@ -7876,10 +7955,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>751</v>
+        <v>167</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>747</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>71</v>
@@ -7887,10 +7966,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>752</v>
+        <v>170</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>748</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>71</v>
@@ -7898,10 +7977,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>753</v>
+        <v>171</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>749</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>71</v>
@@ -7909,10 +7988,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>754</v>
+        <v>172</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>750</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>71</v>
@@ -7922,8 +8001,8 @@
       <c r="A24" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>755</v>
+      <c r="B24" s="43" t="s">
+        <v>751</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>71</v>
@@ -7931,10 +8010,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>756</v>
+        <v>162</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>752</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>71</v>
@@ -7942,10 +8021,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>757</v>
+        <v>164</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>753</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>71</v>
@@ -7953,10 +8032,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>758</v>
+        <v>163</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>754</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>71</v>
@@ -7966,8 +8045,8 @@
       <c r="A28" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>759</v>
+      <c r="B28" s="43" t="s">
+        <v>755</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>71</v>
@@ -7977,8 +8056,8 @@
       <c r="A29" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>760</v>
+      <c r="B29" s="44" t="s">
+        <v>756</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>71</v>
@@ -7988,8 +8067,8 @@
       <c r="A30" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>761</v>
+      <c r="B30" s="43" t="s">
+        <v>757</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>71</v>
@@ -7999,8 +8078,8 @@
       <c r="A31" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>762</v>
+      <c r="B31" s="44" t="s">
+        <v>758</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>71</v>
@@ -8010,8 +8089,8 @@
       <c r="A32" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="56" t="s">
-        <v>763</v>
+      <c r="B32" s="43" t="s">
+        <v>759</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>71</v>
@@ -8019,10 +8098,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>764</v>
+        <v>182</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>760</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>71</v>
@@ -8030,10 +8109,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>765</v>
+        <v>722</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>761</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>71</v>
@@ -8041,10 +8120,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>766</v>
+        <v>654</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>762</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>71</v>
@@ -8052,10 +8131,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>728</v>
+        <v>723</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>724</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>71</v>
@@ -8063,10 +8142,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
-        <v>729</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>730</v>
+        <v>725</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>726</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>71</v>
@@ -8074,10 +8153,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>768</v>
+        <v>763</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>764</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>71</v>
@@ -8088,7 +8167,7 @@
         <v>110</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>71</v>
@@ -8099,7 +8178,7 @@
         <v>111</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>71</v>
@@ -8107,10 +8186,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>71</v>
@@ -8118,10 +8197,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>71</v>
@@ -8129,10 +8208,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>71</v>
@@ -8163,18 +8242,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>71</v>
@@ -8182,10 +8261,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>71</v>
@@ -8193,10 +8272,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -8204,10 +8283,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" t="s">
         <v>557</v>
-      </c>
-      <c r="B5" t="s">
-        <v>559</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -8215,10 +8294,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -8226,10 +8305,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -8237,10 +8316,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>71</v>
@@ -8248,10 +8327,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>71</v>
@@ -8259,10 +8338,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>71</v>
@@ -8270,10 +8349,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>71</v>
@@ -8281,10 +8360,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>71</v>
@@ -8292,57 +8371,57 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
         <v>197</v>
       </c>
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
       <c r="C13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" t="s">
         <v>556</v>
       </c>
-      <c r="B15" t="s">
-        <v>558</v>
-      </c>
       <c r="C15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -8385,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8425,7 +8504,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8481,7 +8560,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8609,7 +8688,7 @@
         <v>124</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8617,23 +8696,23 @@
         <v>125</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -8656,47 +8735,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -8744,11 +8823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
